--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="60">
   <si>
     <t>Profile</t>
   </si>
@@ -47,25 +47,112 @@
     <t>Method</t>
   </si>
   <si>
+    <t>hla-a</t>
+  </si>
+  <si>
+    <t>HLA_A</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#84413-4</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>LOINC#48018-6</t>
+  </si>
+  <si>
+    <t>LOINC#48001-2</t>
+  </si>
+  <si>
+    <t>LOINC#62374-4</t>
+  </si>
+  <si>
+    <t>hla-b</t>
+  </si>
+  <si>
+    <t>HLA_B</t>
+  </si>
+  <si>
+    <t>hla-c</t>
+  </si>
+  <si>
+    <t>HLA_C</t>
+  </si>
+  <si>
+    <t>hla-dpa1</t>
+  </si>
+  <si>
+    <t>HLA_DPA1</t>
+  </si>
+  <si>
+    <t>hla-dpb1</t>
+  </si>
+  <si>
+    <t>HLA_DPB1</t>
+  </si>
+  <si>
+    <t>hla-dqa1</t>
+  </si>
+  <si>
+    <t>HLA_DQA1</t>
+  </si>
+  <si>
+    <t>hla-dqb1</t>
+  </si>
+  <si>
+    <t>HLA_DQB1</t>
+  </si>
+  <si>
+    <t>hla-drb1</t>
+  </si>
+  <si>
+    <t>HLA_DRB1</t>
+  </si>
+  <si>
+    <t>hla-drb3</t>
+  </si>
+  <si>
+    <t>HLA_DRB3</t>
+  </si>
+  <si>
+    <t>hla-drb4</t>
+  </si>
+  <si>
+    <t>HLA_DRB4</t>
+  </si>
+  <si>
+    <t>hla-drb5</t>
+  </si>
+  <si>
+    <t>HLA_DRB5</t>
+  </si>
+  <si>
+    <t>hla-genotype</t>
+  </si>
+  <si>
+    <t>HLA Genotype Observation</t>
+  </si>
+  <si>
     <t>ms-abogroup-observation</t>
   </si>
   <si>
     <t>MSABOGroupObservation</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>LOINC#883-9</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
   <si>
     <t>ms-height-observation</t>
@@ -238,7 +325,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -290,133 +377,1813 @@
         <v>13</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>21</v>
-      </c>
       <c r="F3" t="s" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B18" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C18" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="F20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="E5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s" s="2">
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>13</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="65">
   <si>
     <t>Profile</t>
   </si>
@@ -71,6 +71,12 @@
     <t>optional</t>
   </si>
   <si>
+    <t>To Be Determined Codes#conclusion-string</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>LOINC#48018-6</t>
   </si>
   <si>
@@ -153,6 +159,15 @@
   </si>
   <si>
     <t>LOINC#883-9</t>
+  </si>
+  <si>
+    <t>ms-aborhgroup-observation</t>
+  </si>
+  <si>
+    <t>MSABORHObservation</t>
+  </si>
+  <si>
+    <t>LOINC#882-1</t>
   </si>
   <si>
     <t>ms-height-observation</t>
@@ -313,10 +328,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -325,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -424,7 +439,7 @@
         <v>14</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -450,7 +465,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
@@ -485,7 +500,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -508,25 +523,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>15</v>
-      </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>17</v>
@@ -543,25 +558,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>17</v>
@@ -581,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -590,16 +605,16 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -616,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -648,25 +663,25 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>25</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>17</v>
@@ -695,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -718,25 +733,25 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>17</v>
@@ -756,7 +771,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -765,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -774,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -788,25 +803,25 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>27</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>17</v>
@@ -835,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -870,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -893,25 +908,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>17</v>
@@ -928,28 +943,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>29</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -975,7 +990,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1010,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1045,7 +1060,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1124,7 +1139,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1150,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1185,7 +1200,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1208,25 +1223,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>17</v>
@@ -1243,25 +1258,25 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>33</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>17</v>
@@ -1290,16 +1305,16 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1348,25 +1363,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>17</v>
@@ -1386,7 +1401,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1395,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1418,25 +1433,25 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>35</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>17</v>
@@ -1465,7 +1480,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>14</v>
@@ -1474,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1488,25 +1503,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>17</v>
@@ -1526,7 +1541,7 @@
         <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>14</v>
@@ -1535,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
@@ -1561,7 +1576,7 @@
         <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>14</v>
@@ -1570,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
@@ -1593,25 +1608,25 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>17</v>
@@ -1628,28 +1643,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1666,7 +1681,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1675,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -1701,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1710,7 +1725,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1736,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>14</v>
@@ -1745,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -1768,10 +1783,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>13</v>
@@ -1806,7 +1821,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -1824,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -1841,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>14</v>
@@ -1850,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>14</v>
@@ -1876,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>14</v>
@@ -1885,7 +1900,7 @@
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -1908,25 +1923,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>17</v>
@@ -1943,25 +1958,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>17</v>
@@ -1981,7 +1996,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -1990,16 +2005,16 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2016,7 +2031,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2048,10 +2063,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2060,13 +2075,13 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>17</v>
@@ -2083,28 +2098,28 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2118,19 +2133,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2153,36 +2168,491 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G64" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="H64" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="C53" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E53" t="s" s="2">
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K53" t="s" s="2">
+      <c r="B65" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="68">
   <si>
     <t>Profile</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>LOINC#882-1</t>
+  </si>
+  <si>
+    <t>ms-cmvgroup-observation</t>
+  </si>
+  <si>
+    <t>MSCmvObservation</t>
+  </si>
+  <si>
+    <t>LOINC#LA6576-8</t>
   </si>
   <si>
     <t>ms-height-observation</t>
@@ -340,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2559,22 +2568,22 @@
         <v>53</v>
       </c>
       <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="D64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="F64" t="s" s="2">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -2588,28 +2597,28 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="F65" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="G65" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E65" t="s" s="2">
+      <c r="H65" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -2629,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -2638,21 +2647,56 @@
         <v>64</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K66" t="s" s="2">
+      <c r="D67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="65">
   <si>
     <t>Profile</t>
   </si>
@@ -168,15 +168,6 @@
   </si>
   <si>
     <t>LOINC#882-1</t>
-  </si>
-  <si>
-    <t>ms-cmvgroup-observation</t>
-  </si>
-  <si>
-    <t>MSCmvObservation</t>
-  </si>
-  <si>
-    <t>LOINC#LA6576-8</t>
   </si>
   <si>
     <t>ms-height-observation</t>
@@ -349,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2568,22 +2559,22 @@
         <v>53</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -2597,28 +2588,28 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -2638,7 +2629,7 @@
         <v>63</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
@@ -2647,13 +2638,13 @@
         <v>64</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -2662,41 +2653,6 @@
         <v>14</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="C67" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="D67" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K67" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="72">
   <si>
     <t>Profile</t>
   </si>
@@ -168,6 +168,27 @@
   </si>
   <si>
     <t>LOINC#882-1</t>
+  </si>
+  <si>
+    <t>ms-cmvgroup-observation</t>
+  </si>
+  <si>
+    <t>MSCmvObservation</t>
+  </si>
+  <si>
+    <t>LOINC#13949-3</t>
+  </si>
+  <si>
+    <t>ms-form117-observation</t>
+  </si>
+  <si>
+    <t>MSForm117Observation</t>
+  </si>
+  <si>
+    <t>[not stated]#FORM117COMPLIANCE</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
   <si>
     <t>ms-height-observation</t>
@@ -340,7 +361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2559,22 +2580,22 @@
         <v>53</v>
       </c>
       <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="D64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s" s="2">
-        <v>55</v>
-      </c>
       <c r="F64" t="s" s="2">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -2588,10 +2609,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -2600,7 +2621,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
@@ -2609,7 +2630,7 @@
         <v>16</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -2623,28 +2644,28 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="F66" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="D66" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E66" t="s" s="2">
+      <c r="G66" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="F66" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H66" t="s" s="2">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -2653,6 +2674,76 @@
         <v>14</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>14</v>
       </c>
     </row>
